--- a/Data_EAM&IPC/Salario_Minimo.xlsx
+++ b/Data_EAM&IPC/Salario_Minimo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\TrabajoGrado\Data_EAM&amp;IPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC573E0-07F2-499F-9FA4-A805F4BF7F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED5D4E-005F-4DE3-A045-B16FB68B5C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D8514AFB-509F-4CF4-A5C0-5A8E4AF20FD5}"/>
   </bookViews>
@@ -120,12 +120,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -137,6 +131,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,120 +455,120 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>2008</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>461500</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2009</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>496900</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2010</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>515000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2011</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>535600</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>2012</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>566700</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>2013</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>589500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>2014</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>616000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>2015</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>644350</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>2016</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>689455</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>2017</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>737717</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>2018</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>781242</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>2019</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>828116</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>2020</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>877803</v>
       </c>
     </row>
